--- a/Regional-data/ND par régions.xlsx
+++ b/Regional-data/ND par régions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\Covid forcast\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\Covidforcast\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M358"/>
+  <dimension ref="A1:M393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A341" workbookViewId="0">
-      <selection activeCell="B355" sqref="B355:M358"/>
+    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
+      <selection activeCell="B357" sqref="B357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15114,6 +15114,1441 @@
         <v>4</v>
       </c>
     </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A359" s="2">
+        <v>44434</v>
+      </c>
+      <c r="B359">
+        <v>16</v>
+      </c>
+      <c r="C359">
+        <v>14</v>
+      </c>
+      <c r="D359">
+        <v>5</v>
+      </c>
+      <c r="E359">
+        <v>3</v>
+      </c>
+      <c r="F359">
+        <v>11</v>
+      </c>
+      <c r="G359">
+        <v>16</v>
+      </c>
+      <c r="H359">
+        <v>1</v>
+      </c>
+      <c r="I359">
+        <v>10</v>
+      </c>
+      <c r="J359">
+        <v>5</v>
+      </c>
+      <c r="K359">
+        <v>8</v>
+      </c>
+      <c r="L359">
+        <v>5</v>
+      </c>
+      <c r="M359">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A360" s="2">
+        <v>44435</v>
+      </c>
+      <c r="B360">
+        <v>12</v>
+      </c>
+      <c r="C360">
+        <v>14</v>
+      </c>
+      <c r="D360">
+        <v>2</v>
+      </c>
+      <c r="E360">
+        <v>6</v>
+      </c>
+      <c r="F360">
+        <v>14</v>
+      </c>
+      <c r="G360">
+        <v>9</v>
+      </c>
+      <c r="H360">
+        <v>1</v>
+      </c>
+      <c r="I360">
+        <v>10</v>
+      </c>
+      <c r="J360">
+        <v>10</v>
+      </c>
+      <c r="K360">
+        <v>7</v>
+      </c>
+      <c r="L360">
+        <v>3</v>
+      </c>
+      <c r="M360">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A361" s="2">
+        <v>44436</v>
+      </c>
+      <c r="B361">
+        <v>17</v>
+      </c>
+      <c r="C361">
+        <v>7</v>
+      </c>
+      <c r="D361">
+        <v>6</v>
+      </c>
+      <c r="E361">
+        <v>7</v>
+      </c>
+      <c r="F361">
+        <v>12</v>
+      </c>
+      <c r="G361">
+        <v>11</v>
+      </c>
+      <c r="H361">
+        <v>0</v>
+      </c>
+      <c r="I361">
+        <v>9</v>
+      </c>
+      <c r="J361">
+        <v>9</v>
+      </c>
+      <c r="K361">
+        <v>10</v>
+      </c>
+      <c r="L361">
+        <v>1</v>
+      </c>
+      <c r="M361">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A362" s="2">
+        <v>44437</v>
+      </c>
+      <c r="B362">
+        <v>12</v>
+      </c>
+      <c r="C362">
+        <v>2</v>
+      </c>
+      <c r="D362">
+        <v>2</v>
+      </c>
+      <c r="E362">
+        <v>5</v>
+      </c>
+      <c r="F362">
+        <v>11</v>
+      </c>
+      <c r="G362">
+        <v>11</v>
+      </c>
+      <c r="H362">
+        <v>0</v>
+      </c>
+      <c r="I362">
+        <v>6</v>
+      </c>
+      <c r="J362">
+        <v>11</v>
+      </c>
+      <c r="K362">
+        <v>13</v>
+      </c>
+      <c r="L362">
+        <v>1</v>
+      </c>
+      <c r="M362">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A363" s="2">
+        <v>44438</v>
+      </c>
+      <c r="B363">
+        <v>20</v>
+      </c>
+      <c r="C363">
+        <v>17</v>
+      </c>
+      <c r="D363">
+        <v>7</v>
+      </c>
+      <c r="E363">
+        <v>7</v>
+      </c>
+      <c r="F363">
+        <v>14</v>
+      </c>
+      <c r="G363">
+        <v>9</v>
+      </c>
+      <c r="H363">
+        <v>0</v>
+      </c>
+      <c r="I363">
+        <v>9</v>
+      </c>
+      <c r="J363">
+        <v>7</v>
+      </c>
+      <c r="K363">
+        <v>8</v>
+      </c>
+      <c r="L363">
+        <v>2</v>
+      </c>
+      <c r="M363">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A364" s="2">
+        <v>44439</v>
+      </c>
+      <c r="B364">
+        <v>25</v>
+      </c>
+      <c r="C364">
+        <v>15</v>
+      </c>
+      <c r="D364">
+        <v>4</v>
+      </c>
+      <c r="E364">
+        <v>7</v>
+      </c>
+      <c r="F364">
+        <v>21</v>
+      </c>
+      <c r="G364">
+        <v>12</v>
+      </c>
+      <c r="H364">
+        <v>0</v>
+      </c>
+      <c r="I364">
+        <v>6</v>
+      </c>
+      <c r="J364">
+        <v>7</v>
+      </c>
+      <c r="K364">
+        <v>6</v>
+      </c>
+      <c r="L364">
+        <v>4</v>
+      </c>
+      <c r="M364">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A365" s="2">
+        <v>44440</v>
+      </c>
+      <c r="B365">
+        <v>21</v>
+      </c>
+      <c r="C365">
+        <v>7</v>
+      </c>
+      <c r="D365">
+        <v>5</v>
+      </c>
+      <c r="E365">
+        <v>7</v>
+      </c>
+      <c r="F365">
+        <v>19</v>
+      </c>
+      <c r="G365">
+        <v>12</v>
+      </c>
+      <c r="H365">
+        <v>0</v>
+      </c>
+      <c r="I365">
+        <v>9</v>
+      </c>
+      <c r="J365">
+        <v>11</v>
+      </c>
+      <c r="K365">
+        <v>7</v>
+      </c>
+      <c r="L365">
+        <v>0</v>
+      </c>
+      <c r="M365">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A366" s="2">
+        <v>44441</v>
+      </c>
+      <c r="B366">
+        <v>17</v>
+      </c>
+      <c r="C366">
+        <v>5</v>
+      </c>
+      <c r="D366">
+        <v>3</v>
+      </c>
+      <c r="E366">
+        <v>7</v>
+      </c>
+      <c r="F366">
+        <v>4</v>
+      </c>
+      <c r="G366">
+        <v>13</v>
+      </c>
+      <c r="H366">
+        <v>0</v>
+      </c>
+      <c r="I366">
+        <v>6</v>
+      </c>
+      <c r="J366">
+        <v>5</v>
+      </c>
+      <c r="K366">
+        <v>7</v>
+      </c>
+      <c r="L366">
+        <v>1</v>
+      </c>
+      <c r="M366">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A367" s="2">
+        <v>44442</v>
+      </c>
+      <c r="B367">
+        <v>23</v>
+      </c>
+      <c r="C367">
+        <v>12</v>
+      </c>
+      <c r="D367">
+        <v>6</v>
+      </c>
+      <c r="E367">
+        <v>5</v>
+      </c>
+      <c r="F367">
+        <v>12</v>
+      </c>
+      <c r="G367">
+        <v>15</v>
+      </c>
+      <c r="H367">
+        <v>0</v>
+      </c>
+      <c r="I367">
+        <v>4</v>
+      </c>
+      <c r="J367">
+        <v>13</v>
+      </c>
+      <c r="K367">
+        <v>9</v>
+      </c>
+      <c r="L367">
+        <v>1</v>
+      </c>
+      <c r="M367">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A368" s="2">
+        <v>44443</v>
+      </c>
+      <c r="B368">
+        <v>16</v>
+      </c>
+      <c r="C368">
+        <v>6</v>
+      </c>
+      <c r="D368">
+        <v>1</v>
+      </c>
+      <c r="E368">
+        <v>4</v>
+      </c>
+      <c r="F368">
+        <v>7</v>
+      </c>
+      <c r="G368">
+        <v>13</v>
+      </c>
+      <c r="H368">
+        <v>0</v>
+      </c>
+      <c r="I368">
+        <v>2</v>
+      </c>
+      <c r="J368">
+        <v>9</v>
+      </c>
+      <c r="K368">
+        <v>7</v>
+      </c>
+      <c r="L368">
+        <v>2</v>
+      </c>
+      <c r="M368">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A369" s="2">
+        <v>44444</v>
+      </c>
+      <c r="B369">
+        <v>18</v>
+      </c>
+      <c r="C369">
+        <v>11</v>
+      </c>
+      <c r="D369">
+        <v>4</v>
+      </c>
+      <c r="E369">
+        <v>2</v>
+      </c>
+      <c r="F369">
+        <v>10</v>
+      </c>
+      <c r="G369">
+        <v>11</v>
+      </c>
+      <c r="H369">
+        <v>1</v>
+      </c>
+      <c r="I369">
+        <v>7</v>
+      </c>
+      <c r="J369">
+        <v>8</v>
+      </c>
+      <c r="K369">
+        <v>6</v>
+      </c>
+      <c r="L369">
+        <v>2</v>
+      </c>
+      <c r="M369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A370" s="2">
+        <v>44445</v>
+      </c>
+      <c r="B370">
+        <v>15</v>
+      </c>
+      <c r="C370">
+        <v>5</v>
+      </c>
+      <c r="D370">
+        <v>3</v>
+      </c>
+      <c r="E370">
+        <v>4</v>
+      </c>
+      <c r="F370">
+        <v>12</v>
+      </c>
+      <c r="G370">
+        <v>4</v>
+      </c>
+      <c r="H370">
+        <v>1</v>
+      </c>
+      <c r="I370">
+        <v>6</v>
+      </c>
+      <c r="J370">
+        <v>9</v>
+      </c>
+      <c r="K370">
+        <v>8</v>
+      </c>
+      <c r="L370">
+        <v>4</v>
+      </c>
+      <c r="M370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A371" s="2">
+        <v>44446</v>
+      </c>
+      <c r="B371">
+        <v>16</v>
+      </c>
+      <c r="C371">
+        <v>7</v>
+      </c>
+      <c r="D371">
+        <v>2</v>
+      </c>
+      <c r="E371">
+        <v>4</v>
+      </c>
+      <c r="F371">
+        <v>17</v>
+      </c>
+      <c r="G371">
+        <v>6</v>
+      </c>
+      <c r="H371">
+        <v>0</v>
+      </c>
+      <c r="I371">
+        <v>8</v>
+      </c>
+      <c r="J371">
+        <v>8</v>
+      </c>
+      <c r="K371">
+        <v>9</v>
+      </c>
+      <c r="L371">
+        <v>0</v>
+      </c>
+      <c r="M371">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A372" s="2">
+        <v>44447</v>
+      </c>
+      <c r="B372">
+        <v>14</v>
+      </c>
+      <c r="C372">
+        <v>15</v>
+      </c>
+      <c r="D372">
+        <v>2</v>
+      </c>
+      <c r="E372">
+        <v>2</v>
+      </c>
+      <c r="F372">
+        <v>6</v>
+      </c>
+      <c r="G372">
+        <v>4</v>
+      </c>
+      <c r="H372">
+        <v>0</v>
+      </c>
+      <c r="I372">
+        <v>8</v>
+      </c>
+      <c r="J372">
+        <v>8</v>
+      </c>
+      <c r="K372">
+        <v>7</v>
+      </c>
+      <c r="L372">
+        <v>4</v>
+      </c>
+      <c r="M372">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A373" s="2">
+        <v>44448</v>
+      </c>
+      <c r="B373">
+        <v>20</v>
+      </c>
+      <c r="C373">
+        <v>5</v>
+      </c>
+      <c r="D373">
+        <v>2</v>
+      </c>
+      <c r="E373">
+        <v>3</v>
+      </c>
+      <c r="F373">
+        <v>14</v>
+      </c>
+      <c r="G373">
+        <v>6</v>
+      </c>
+      <c r="H373">
+        <v>1</v>
+      </c>
+      <c r="I373">
+        <v>3</v>
+      </c>
+      <c r="J373">
+        <v>9</v>
+      </c>
+      <c r="K373">
+        <v>7</v>
+      </c>
+      <c r="L373">
+        <v>1</v>
+      </c>
+      <c r="M373">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A374" s="2">
+        <v>44449</v>
+      </c>
+      <c r="B374">
+        <v>14</v>
+      </c>
+      <c r="C374">
+        <v>2</v>
+      </c>
+      <c r="D374">
+        <v>4</v>
+      </c>
+      <c r="E374">
+        <v>3</v>
+      </c>
+      <c r="F374">
+        <v>16</v>
+      </c>
+      <c r="G374">
+        <v>6</v>
+      </c>
+      <c r="H374">
+        <v>0</v>
+      </c>
+      <c r="I374">
+        <v>6</v>
+      </c>
+      <c r="J374">
+        <v>9</v>
+      </c>
+      <c r="K374">
+        <v>2</v>
+      </c>
+      <c r="L374">
+        <v>3</v>
+      </c>
+      <c r="M374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A375" s="2">
+        <v>44450</v>
+      </c>
+      <c r="B375">
+        <v>14</v>
+      </c>
+      <c r="C375">
+        <v>5</v>
+      </c>
+      <c r="D375">
+        <v>1</v>
+      </c>
+      <c r="E375">
+        <v>4</v>
+      </c>
+      <c r="F375">
+        <v>4</v>
+      </c>
+      <c r="G375">
+        <v>9</v>
+      </c>
+      <c r="H375">
+        <v>0</v>
+      </c>
+      <c r="I375">
+        <v>4</v>
+      </c>
+      <c r="J375">
+        <v>4</v>
+      </c>
+      <c r="K375">
+        <v>3</v>
+      </c>
+      <c r="L375">
+        <v>2</v>
+      </c>
+      <c r="M375">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A376" s="2">
+        <v>44451</v>
+      </c>
+      <c r="B376">
+        <v>16</v>
+      </c>
+      <c r="C376">
+        <v>4</v>
+      </c>
+      <c r="D376">
+        <v>2</v>
+      </c>
+      <c r="E376">
+        <v>5</v>
+      </c>
+      <c r="F376">
+        <v>13</v>
+      </c>
+      <c r="G376">
+        <v>3</v>
+      </c>
+      <c r="H376">
+        <v>1</v>
+      </c>
+      <c r="I376">
+        <v>1</v>
+      </c>
+      <c r="J376">
+        <v>6</v>
+      </c>
+      <c r="K376">
+        <v>6</v>
+      </c>
+      <c r="L376">
+        <v>0</v>
+      </c>
+      <c r="M376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A377" s="2">
+        <v>44452</v>
+      </c>
+      <c r="B377">
+        <v>15</v>
+      </c>
+      <c r="C377">
+        <v>6</v>
+      </c>
+      <c r="D377">
+        <v>3</v>
+      </c>
+      <c r="E377">
+        <v>4</v>
+      </c>
+      <c r="F377">
+        <v>15</v>
+      </c>
+      <c r="G377">
+        <v>9</v>
+      </c>
+      <c r="H377">
+        <v>1</v>
+      </c>
+      <c r="I377">
+        <v>2</v>
+      </c>
+      <c r="J377">
+        <v>7</v>
+      </c>
+      <c r="K377">
+        <v>9</v>
+      </c>
+      <c r="L377">
+        <v>0</v>
+      </c>
+      <c r="M377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A378" s="2">
+        <v>44453</v>
+      </c>
+      <c r="B378">
+        <v>16</v>
+      </c>
+      <c r="C378">
+        <v>5</v>
+      </c>
+      <c r="D378">
+        <v>1</v>
+      </c>
+      <c r="E378">
+        <v>4</v>
+      </c>
+      <c r="F378">
+        <v>12</v>
+      </c>
+      <c r="G378">
+        <v>4</v>
+      </c>
+      <c r="H378">
+        <v>0</v>
+      </c>
+      <c r="I378">
+        <v>2</v>
+      </c>
+      <c r="J378">
+        <v>6</v>
+      </c>
+      <c r="K378">
+        <v>12</v>
+      </c>
+      <c r="L378">
+        <v>0</v>
+      </c>
+      <c r="M378">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A379" s="2">
+        <v>44454</v>
+      </c>
+      <c r="B379">
+        <v>7</v>
+      </c>
+      <c r="C379">
+        <v>5</v>
+      </c>
+      <c r="D379">
+        <v>2</v>
+      </c>
+      <c r="E379">
+        <v>3</v>
+      </c>
+      <c r="F379">
+        <v>14</v>
+      </c>
+      <c r="G379">
+        <v>0</v>
+      </c>
+      <c r="H379">
+        <v>0</v>
+      </c>
+      <c r="I379">
+        <v>2</v>
+      </c>
+      <c r="J379">
+        <v>3</v>
+      </c>
+      <c r="K379">
+        <v>8</v>
+      </c>
+      <c r="L379">
+        <v>1</v>
+      </c>
+      <c r="M379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A380" s="2">
+        <v>44455</v>
+      </c>
+      <c r="B380">
+        <v>10</v>
+      </c>
+      <c r="C380">
+        <v>3</v>
+      </c>
+      <c r="D380">
+        <v>2</v>
+      </c>
+      <c r="E380">
+        <v>2</v>
+      </c>
+      <c r="F380">
+        <v>11</v>
+      </c>
+      <c r="G380">
+        <v>5</v>
+      </c>
+      <c r="H380">
+        <v>0</v>
+      </c>
+      <c r="I380">
+        <v>5</v>
+      </c>
+      <c r="J380">
+        <v>3</v>
+      </c>
+      <c r="K380">
+        <v>4</v>
+      </c>
+      <c r="L380">
+        <v>0</v>
+      </c>
+      <c r="M380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A381" s="2">
+        <v>44456</v>
+      </c>
+      <c r="B381">
+        <v>7</v>
+      </c>
+      <c r="C381">
+        <v>5</v>
+      </c>
+      <c r="D381">
+        <v>1</v>
+      </c>
+      <c r="E381">
+        <v>3</v>
+      </c>
+      <c r="F381">
+        <v>10</v>
+      </c>
+      <c r="G381">
+        <v>9</v>
+      </c>
+      <c r="H381">
+        <v>0</v>
+      </c>
+      <c r="I381">
+        <v>3</v>
+      </c>
+      <c r="J381">
+        <v>5</v>
+      </c>
+      <c r="K381">
+        <v>6</v>
+      </c>
+      <c r="L381">
+        <v>1</v>
+      </c>
+      <c r="M381">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A382" s="2">
+        <v>44457</v>
+      </c>
+      <c r="B382">
+        <v>14</v>
+      </c>
+      <c r="C382">
+        <v>4</v>
+      </c>
+      <c r="D382">
+        <v>3</v>
+      </c>
+      <c r="E382">
+        <v>5</v>
+      </c>
+      <c r="F382">
+        <v>10</v>
+      </c>
+      <c r="G382">
+        <v>0</v>
+      </c>
+      <c r="H382">
+        <v>0</v>
+      </c>
+      <c r="I382">
+        <v>1</v>
+      </c>
+      <c r="J382">
+        <v>4</v>
+      </c>
+      <c r="K382">
+        <v>7</v>
+      </c>
+      <c r="L382">
+        <v>0</v>
+      </c>
+      <c r="M382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A383" s="2">
+        <v>44458</v>
+      </c>
+      <c r="B383">
+        <v>8</v>
+      </c>
+      <c r="C383">
+        <v>3</v>
+      </c>
+      <c r="D383">
+        <v>1</v>
+      </c>
+      <c r="E383">
+        <v>3</v>
+      </c>
+      <c r="F383">
+        <v>8</v>
+      </c>
+      <c r="G383">
+        <v>2</v>
+      </c>
+      <c r="H383">
+        <v>0</v>
+      </c>
+      <c r="I383">
+        <v>2</v>
+      </c>
+      <c r="J383">
+        <v>2</v>
+      </c>
+      <c r="K383">
+        <v>4</v>
+      </c>
+      <c r="L383">
+        <v>0</v>
+      </c>
+      <c r="M383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A384" s="2">
+        <v>44459</v>
+      </c>
+      <c r="B384">
+        <v>11</v>
+      </c>
+      <c r="C384">
+        <v>2</v>
+      </c>
+      <c r="D384">
+        <v>1</v>
+      </c>
+      <c r="E384">
+        <v>2</v>
+      </c>
+      <c r="F384">
+        <v>19</v>
+      </c>
+      <c r="G384">
+        <v>5</v>
+      </c>
+      <c r="H384">
+        <v>0</v>
+      </c>
+      <c r="I384">
+        <v>2</v>
+      </c>
+      <c r="J384">
+        <v>1</v>
+      </c>
+      <c r="K384">
+        <v>5</v>
+      </c>
+      <c r="L384">
+        <v>0</v>
+      </c>
+      <c r="M384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A385" s="2">
+        <v>44460</v>
+      </c>
+      <c r="B385">
+        <v>10</v>
+      </c>
+      <c r="C385">
+        <v>2</v>
+      </c>
+      <c r="D385">
+        <v>3</v>
+      </c>
+      <c r="E385">
+        <v>5</v>
+      </c>
+      <c r="F385">
+        <v>16</v>
+      </c>
+      <c r="G385">
+        <v>4</v>
+      </c>
+      <c r="H385">
+        <v>0</v>
+      </c>
+      <c r="I385">
+        <v>3</v>
+      </c>
+      <c r="J385">
+        <v>5</v>
+      </c>
+      <c r="K385">
+        <v>1</v>
+      </c>
+      <c r="L385">
+        <v>0</v>
+      </c>
+      <c r="M385">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A386" s="2">
+        <v>44461</v>
+      </c>
+      <c r="B386">
+        <v>8</v>
+      </c>
+      <c r="C386">
+        <v>4</v>
+      </c>
+      <c r="D386">
+        <v>0</v>
+      </c>
+      <c r="E386">
+        <v>2</v>
+      </c>
+      <c r="F386">
+        <v>9</v>
+      </c>
+      <c r="G386">
+        <v>1</v>
+      </c>
+      <c r="H386">
+        <v>0</v>
+      </c>
+      <c r="I386">
+        <v>1</v>
+      </c>
+      <c r="J386">
+        <v>0</v>
+      </c>
+      <c r="K386">
+        <v>6</v>
+      </c>
+      <c r="L386">
+        <v>0</v>
+      </c>
+      <c r="M386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A387" s="2">
+        <v>44462</v>
+      </c>
+      <c r="B387">
+        <v>11</v>
+      </c>
+      <c r="C387">
+        <v>3</v>
+      </c>
+      <c r="D387">
+        <v>2</v>
+      </c>
+      <c r="E387">
+        <v>2</v>
+      </c>
+      <c r="F387">
+        <v>9</v>
+      </c>
+      <c r="G387">
+        <v>1</v>
+      </c>
+      <c r="H387">
+        <v>0</v>
+      </c>
+      <c r="I387">
+        <v>3</v>
+      </c>
+      <c r="J387">
+        <v>1</v>
+      </c>
+      <c r="K387">
+        <v>3</v>
+      </c>
+      <c r="L387">
+        <v>0</v>
+      </c>
+      <c r="M387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A388" s="2">
+        <v>44463</v>
+      </c>
+      <c r="B388">
+        <v>6</v>
+      </c>
+      <c r="C388">
+        <v>3</v>
+      </c>
+      <c r="D388">
+        <v>1</v>
+      </c>
+      <c r="E388">
+        <v>2</v>
+      </c>
+      <c r="F388">
+        <v>6</v>
+      </c>
+      <c r="G388">
+        <v>4</v>
+      </c>
+      <c r="H388">
+        <v>0</v>
+      </c>
+      <c r="I388">
+        <v>3</v>
+      </c>
+      <c r="J388">
+        <v>1</v>
+      </c>
+      <c r="K388">
+        <v>0</v>
+      </c>
+      <c r="L388">
+        <v>0</v>
+      </c>
+      <c r="M388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A389" s="2">
+        <v>44464</v>
+      </c>
+      <c r="B389">
+        <v>8</v>
+      </c>
+      <c r="C389">
+        <v>2</v>
+      </c>
+      <c r="D389">
+        <v>0</v>
+      </c>
+      <c r="E389">
+        <v>2</v>
+      </c>
+      <c r="F389">
+        <v>5</v>
+      </c>
+      <c r="G389">
+        <v>3</v>
+      </c>
+      <c r="H389">
+        <v>0</v>
+      </c>
+      <c r="I389">
+        <v>3</v>
+      </c>
+      <c r="J389">
+        <v>5</v>
+      </c>
+      <c r="K389">
+        <v>1</v>
+      </c>
+      <c r="L389">
+        <v>0</v>
+      </c>
+      <c r="M389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A390" s="2">
+        <v>44465</v>
+      </c>
+      <c r="B390">
+        <v>5</v>
+      </c>
+      <c r="C390">
+        <v>6</v>
+      </c>
+      <c r="D390">
+        <v>0</v>
+      </c>
+      <c r="E390">
+        <v>1</v>
+      </c>
+      <c r="F390">
+        <v>10</v>
+      </c>
+      <c r="G390">
+        <v>3</v>
+      </c>
+      <c r="H390">
+        <v>0</v>
+      </c>
+      <c r="I390">
+        <v>3</v>
+      </c>
+      <c r="J390">
+        <v>2</v>
+      </c>
+      <c r="K390">
+        <v>4</v>
+      </c>
+      <c r="L390">
+        <v>0</v>
+      </c>
+      <c r="M390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A391" s="2">
+        <v>44466</v>
+      </c>
+      <c r="B391">
+        <v>8</v>
+      </c>
+      <c r="C391">
+        <v>3</v>
+      </c>
+      <c r="D391">
+        <v>0</v>
+      </c>
+      <c r="E391">
+        <v>2</v>
+      </c>
+      <c r="F391">
+        <v>16</v>
+      </c>
+      <c r="G391">
+        <v>2</v>
+      </c>
+      <c r="H391">
+        <v>0</v>
+      </c>
+      <c r="I391">
+        <v>0</v>
+      </c>
+      <c r="J391">
+        <v>0</v>
+      </c>
+      <c r="K391">
+        <v>1</v>
+      </c>
+      <c r="L391">
+        <v>0</v>
+      </c>
+      <c r="M391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A392" s="2">
+        <v>44467</v>
+      </c>
+      <c r="B392">
+        <v>5</v>
+      </c>
+      <c r="C392">
+        <v>3</v>
+      </c>
+      <c r="D392">
+        <v>0</v>
+      </c>
+      <c r="E392">
+        <v>2</v>
+      </c>
+      <c r="F392">
+        <v>6</v>
+      </c>
+      <c r="G392">
+        <v>3</v>
+      </c>
+      <c r="H392">
+        <v>0</v>
+      </c>
+      <c r="I392">
+        <v>1</v>
+      </c>
+      <c r="J392">
+        <v>1</v>
+      </c>
+      <c r="K392">
+        <v>2</v>
+      </c>
+      <c r="L392">
+        <v>2</v>
+      </c>
+      <c r="M392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A393" s="2">
+        <v>44468</v>
+      </c>
+      <c r="B393">
+        <v>5</v>
+      </c>
+      <c r="C393">
+        <v>3</v>
+      </c>
+      <c r="D393">
+        <v>1</v>
+      </c>
+      <c r="E393">
+        <v>3</v>
+      </c>
+      <c r="F393">
+        <v>8</v>
+      </c>
+      <c r="G393">
+        <v>2</v>
+      </c>
+      <c r="H393">
+        <v>0</v>
+      </c>
+      <c r="I393">
+        <v>1</v>
+      </c>
+      <c r="J393">
+        <v>0</v>
+      </c>
+      <c r="K393">
+        <v>0</v>
+      </c>
+      <c r="L393">
+        <v>0</v>
+      </c>
+      <c r="M393">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
